--- a/challenges.xlsx
+++ b/challenges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\twine-ctf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\uni_master\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991F166A-C530-49B8-9A6A-B653EA80900A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C43A95-2E98-48BA-B872-9D5E7925A6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengesÜbersicht" sheetId="1" r:id="rId1"/>
@@ -644,18 +644,18 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -704,7 +704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -727,7 +727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -750,7 +750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -773,7 +773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -796,7 +796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -819,7 +819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,7 +827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -847,7 +847,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
         <v>57</v>
       </c>
@@ -870,16 +870,16 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -896,7 +896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -913,27 +913,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -954,13 +954,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.81640625" customWidth="1"/>
-    <col min="2" max="2" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -968,7 +968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -976,7 +976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -998,13 +998,13 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1053,12 +1053,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>

--- a/challenges.xlsx
+++ b/challenges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\uni_master\twine-ctf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obakd\Documents\FH Wedel\IT-Sicherheit Projekt\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C43A95-2E98-48BA-B872-9D5E7925A6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A904B417-4E8D-4F89-8721-BBA5FF9711F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengesÜbersicht" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>ChallengeName</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Nein</t>
+  </si>
+  <si>
+    <t>picoCTF - Insp3ct0r: https://play.picoctf.org/practice/challenge/18?category=1&amp;page=1</t>
   </si>
 </sst>
 </file>
@@ -644,15 +647,15 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="79.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -820,11 +823,23 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">

--- a/challenges.xlsx
+++ b/challenges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obakd\Documents\FH Wedel\IT-Sicherheit Projekt\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A904B417-4E8D-4F89-8721-BBA5FF9711F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427305A3-CCD0-49FF-8CD8-75AEC99CCE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>ChallengeName</t>
   </si>
@@ -81,9 +81,6 @@
     <t>ctf3</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Challenges</t>
   </si>
   <si>
@@ -211,6 +208,24 @@
   </si>
   <si>
     <t>picoCTF - Insp3ct0r: https://play.picoctf.org/practice/challenge/18?category=1&amp;page=1</t>
+  </si>
+  <si>
+    <t>picoCTF - https://play.picoctf.org/practice/challenge/186?page=1&amp;search=information</t>
+  </si>
+  <si>
+    <t>Forecsics</t>
+  </si>
+  <si>
+    <t>Suche im Metadata eines Fotos</t>
+  </si>
+  <si>
+    <t>Skriptanalyse</t>
+  </si>
+  <si>
+    <t>picoCTF - https://play.picoctf.org/practice/challenge/12?category=3&amp;page=1</t>
+  </si>
+  <si>
+    <t>Reverse Engeneering</t>
   </si>
 </sst>
 </file>
@@ -647,7 +662,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +681,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -678,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -701,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -709,7 +724,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
@@ -721,13 +736,13 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -747,15 +762,15 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
@@ -764,21 +779,21 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
@@ -787,21 +802,21 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="8">
         <v>3</v>
@@ -810,22 +825,25 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8" s="8">
         <v>1</v>
       </c>
@@ -833,18 +851,18 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="8">
         <v>2</v>
@@ -853,18 +871,33 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -896,19 +929,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -916,16 +949,16 @@
         <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -940,17 +973,17 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -966,7 +999,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,26 +1010,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1021,13 +1054,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1035,7 +1068,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3">
         <v>44845</v>
@@ -1046,7 +1079,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3">
         <v>44845</v>
@@ -1057,25 +1090,25 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/challenges.xlsx
+++ b/challenges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obakd\Documents\FH Wedel\IT-Sicherheit Projekt\twine-ctf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\uni_master\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427305A3-CCD0-49FF-8CD8-75AEC99CCE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05695933-92B6-4BC0-AA86-4E71EE963F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32325" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengesÜbersicht" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>ChallengeName</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>Reverse Engeneering</t>
+  </si>
+  <si>
+    <t>ctf10</t>
+  </si>
+  <si>
+    <t>Irgendwas mit Terminal</t>
   </si>
 </sst>
 </file>
@@ -659,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,6 +904,17 @@
       </c>
       <c r="H10" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/challenges.xlsx
+++ b/challenges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\uni_master\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05695933-92B6-4BC0-AA86-4E71EE963F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A538B-6D1B-4BA4-9FA7-EAFF49AB6AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32325" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32325" yWindow="2175" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengesÜbersicht" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/challenges.xlsx
+++ b/challenges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\uni_master\twine-ctf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A538B-6D1B-4BA4-9FA7-EAFF49AB6AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE7488D-77A0-4208-9DAF-FC533D73FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32325" yWindow="2175" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengesÜbersicht" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>ChallengeName</t>
   </si>
@@ -232,6 +232,24 @@
   </si>
   <si>
     <t>Irgendwas mit Terminal</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>ctf11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forensics </t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/49767220/accessing-hidden-data-streams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidden stream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">je nach bedarf können wir hier einen brief erstellen oder so </t>
   </si>
 </sst>
 </file>
@@ -389,8 +407,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Challenges"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Lösung (flag)"/>
@@ -665,21 +683,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="79.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="79.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -728,7 +746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -751,7 +769,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -774,7 +792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -797,7 +815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -820,7 +838,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -843,7 +861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -866,7 +884,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -886,7 +904,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -906,7 +924,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -915,6 +933,29 @@
       </c>
       <c r="E11" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -929,22 +970,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.36328125" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -961,7 +1002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -978,29 +1019,40 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1019,13 +1071,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.81640625" customWidth="1"/>
+    <col min="2" max="2" width="43.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1033,7 +1085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1041,7 +1093,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1063,13 +1115,13 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
     <col min="2" max="2" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1080,7 +1132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +1143,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1154,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1110,7 +1162,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1118,12 +1170,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>38</v>
       </c>

--- a/challenges.xlsx
+++ b/challenges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\twine-ctf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obakd\Documents\FH Wedel\IT-Sicherheit Projekt\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE7488D-77A0-4208-9DAF-FC533D73FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EDC04F-B37C-4FF8-9E77-13385E4CB82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengesÜbersicht" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>ChallengeName</t>
   </si>
@@ -250,13 +250,19 @@
   </si>
   <si>
     <t xml:space="preserve">je nach bedarf können wir hier einen brief erstellen oder so </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lösung </t>
+  </si>
+  <si>
+    <t>picoCTF 2019 vault-door-1 Writeup – DMFR SECURITY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +289,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -324,10 +345,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -351,8 +373,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -390,9 +415,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:H19" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:I19" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:I19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ChallengeName"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nr. im Game"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Stufe" dataDxfId="0"/>
@@ -401,6 +426,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Typ"/>
     <tableColumn id="8" xr3:uid="{BE2C3356-256D-405E-BE1B-E0445F42102A}" name="simuliert"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quelle"/>
+    <tableColumn id="9" xr3:uid="{E3D4471F-B0A3-476F-BF07-3E68248E5635}" name="Lösung "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -683,21 +709,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="79.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="79.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,8 +748,11 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -746,7 +775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -769,7 +798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -792,7 +821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -815,7 +844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -838,7 +867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -861,7 +890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -884,7 +913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -904,7 +933,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -923,8 +952,11 @@
       <c r="H10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -935,7 +967,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -960,10 +992,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I10" r:id="rId1" display="https://dmfrsecurity.com/2021/11/01/picoctf-2019-vault-door-1-writeup/" xr:uid="{6B6D9036-6650-419F-8539-D05D0655B5C8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -976,16 +1011,16 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="52.36328125" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1002,7 +1037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -1019,32 +1054,32 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1071,13 +1106,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.81640625" customWidth="1"/>
-    <col min="2" max="2" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1085,7 +1120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1093,7 +1128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1115,13 +1150,13 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1132,7 +1167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1143,7 +1178,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1189,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1162,7 +1197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1170,12 +1205,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>

--- a/challenges.xlsx
+++ b/challenges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obakd\Documents\FH Wedel\IT-Sicherheit Projekt\twine-ctf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\uni_master\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EDC04F-B37C-4FF8-9E77-13385E4CB82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8073A545-2D7B-49F9-84AC-F01BD6F454D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengesÜbersicht" sheetId="1" r:id="rId1"/>
@@ -712,7 +712,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/challenges.xlsx
+++ b/challenges.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\uni_master\twine-ctf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obakd\Documents\FH Wedel\IT-Sicherheit Projekt\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8073A545-2D7B-49F9-84AC-F01BD6F454D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B6D656-B667-4E5E-8733-21F2027467D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengesÜbersicht" sheetId="1" r:id="rId1"/>
-    <sheet name="Lösungen+Hints" sheetId="2" r:id="rId2"/>
-    <sheet name="Richtlinien" sheetId="3" r:id="rId3"/>
-    <sheet name="TODO" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="5" r:id="rId2"/>
+    <sheet name="Lösungen+Hints" sheetId="2" r:id="rId3"/>
+    <sheet name="Richtlinien" sheetId="3" r:id="rId4"/>
+    <sheet name="ToDos" sheetId="4" r:id="rId5"/>
+    <sheet name="Story Zuordnung" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t>ChallengeName</t>
   </si>
@@ -256,6 +258,48 @@
   </si>
   <si>
     <t>picoCTF 2019 vault-door-1 Writeup – DMFR SECURITY</t>
+  </si>
+  <si>
+    <t>ctf-1</t>
+  </si>
+  <si>
+    <t>ctf-2</t>
+  </si>
+  <si>
+    <t>ctf-3</t>
+  </si>
+  <si>
+    <t>ctf-4</t>
+  </si>
+  <si>
+    <t>ctf-5</t>
+  </si>
+  <si>
+    <t>ctf-6</t>
+  </si>
+  <si>
+    <t>ctf-7</t>
+  </si>
+  <si>
+    <t>ctf-8</t>
+  </si>
+  <si>
+    <t>ctf-9</t>
+  </si>
+  <si>
+    <t>ctf-10</t>
+  </si>
+  <si>
+    <t>ctf-11</t>
+  </si>
+  <si>
+    <t>ctf-12</t>
+  </si>
+  <si>
+    <t>leer</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -349,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -375,6 +419,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -711,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,10 +945,10 @@
       <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F8" t="s">
@@ -943,7 +988,7 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="15" t="s">
         <v>56</v>
       </c>
       <c r="F10" t="s">
@@ -1004,6 +1049,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D365CF-5BE8-45C4-BEAB-B8E4702DC8BF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1098,7 +1155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1142,12 +1199,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,4 +1275,113 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DCD036-2CB5-4BFC-8E7C-2C6F414BD505}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/challenges.xlsx
+++ b/challenges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obakd\Documents\FH Wedel\IT-Sicherheit Projekt\twine-ctf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\uni_master\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B6D656-B667-4E5E-8733-21F2027467D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41DCF26-277A-49F7-9CA2-6AEFC761B66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengesÜbersicht" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
   <si>
     <t>ChallengeName</t>
   </si>
@@ -194,12 +194,6 @@
     <t>look at js, base64 codiert user and pw</t>
   </si>
   <si>
-    <t xml:space="preserve">Same javascript funktion is executed </t>
-  </si>
-  <si>
-    <t>3*8-bit bytes is represented by four 6-bit digits with a particular set of 64 characters</t>
-  </si>
-  <si>
     <t>cft9</t>
   </si>
   <si>
@@ -300,6 +294,30 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Can you find a method that will be executed when you press the button?</t>
+  </si>
+  <si>
+    <t>What does the JavaScript funktion atob() do?</t>
+  </si>
+  <si>
+    <t>ctf5</t>
+  </si>
+  <si>
+    <t>ctf6</t>
+  </si>
+  <si>
+    <t>You need to insert some javascript, maybe the script tag helps</t>
+  </si>
+  <si>
+    <t>It is possible to pop an alert with javascript "alert()", you should only add some script-tags</t>
+  </si>
+  <si>
+    <t>Maybe there are other html tags that are vulnerable?</t>
+  </si>
+  <si>
+    <t>Think of an image tag, could you insert same javascript here (onerror= and src=)"</t>
   </si>
 </sst>
 </file>
@@ -393,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -419,7 +437,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -794,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -822,7 +839,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
@@ -834,13 +851,13 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -945,22 +962,22 @@
       <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" t="s">
         <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="8">
         <v>2</v>
@@ -975,12 +992,12 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="8">
         <v>2</v>
@@ -988,33 +1005,33 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>56</v>
+      <c r="E10" t="s">
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="8">
         <v>2</v>
@@ -1023,16 +1040,16 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
         <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1064,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1113,7 @@
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>52</v>
@@ -1105,52 +1122,74 @@
         <v>53</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>90</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1281,7 +1320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DCD036-2CB5-4BFC-8E7C-2C6F414BD505}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1289,95 +1328,95 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
         <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/challenges.xlsx
+++ b/challenges.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\uni_master\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41DCF26-277A-49F7-9CA2-6AEFC761B66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95DC9D1-AEF7-4CA3-ACFE-89537A44402C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32910" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengesÜbersicht" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="5" r:id="rId2"/>
-    <sheet name="Lösungen+Hints" sheetId="2" r:id="rId3"/>
-    <sheet name="Richtlinien" sheetId="3" r:id="rId4"/>
-    <sheet name="ToDos" sheetId="4" r:id="rId5"/>
-    <sheet name="Story Zuordnung" sheetId="6" r:id="rId6"/>
+    <sheet name="Lösungen+Hints" sheetId="2" r:id="rId2"/>
+    <sheet name="Richtlinien" sheetId="3" r:id="rId3"/>
+    <sheet name="ToDos" sheetId="4" r:id="rId4"/>
+    <sheet name="Story Zuordnung" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -411,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -437,6 +436,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +923,7 @@
         <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
@@ -946,7 +946,7 @@
         <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
         <v>39</v>
@@ -982,10 +982,10 @@
       <c r="C9" s="8">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F9" t="s">
@@ -1066,22 +1066,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D365CF-5BE8-45C4-BEAB-B8E4702DC8BF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1194,7 +1182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1238,7 +1226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -1316,7 +1304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DCD036-2CB5-4BFC-8E7C-2C6F414BD505}">
   <dimension ref="A1:B12"/>
   <sheetViews>

--- a/challenges.xlsx
+++ b/challenges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\uni_master\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95DC9D1-AEF7-4CA3-ACFE-89537A44402C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B03023-99F3-4348-A6F2-5BE44B31B6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32910" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengesÜbersicht" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -436,7 +436,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -774,7 +773,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,10 +981,10 @@
       <c r="C9" s="8">
         <v>2</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" t="s">
         <v>45</v>
       </c>
       <c r="F9" t="s">

--- a/challenges.xlsx
+++ b/challenges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\uni_master\twine-ctf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\twine-ctf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B03023-99F3-4348-A6F2-5BE44B31B6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5B8CF1-0229-4EE5-AEF9-F1F62AD19A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChallengesÜbersicht" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>ChallengeName</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Typ</t>
   </si>
   <si>
-    <t>Quelle</t>
-  </si>
-  <si>
     <t>Marc</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Web</t>
   </si>
   <si>
-    <t xml:space="preserve">picoCTF - </t>
-  </si>
-  <si>
     <t>Suche im Src (Html, css)</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Idee:</t>
   </si>
   <si>
-    <t>https://xss-game.appspot.com/</t>
-  </si>
-  <si>
     <t>ctf4</t>
   </si>
   <si>
@@ -202,12 +193,6 @@
     <t>Nein</t>
   </si>
   <si>
-    <t>picoCTF - Insp3ct0r: https://play.picoctf.org/practice/challenge/18?category=1&amp;page=1</t>
-  </si>
-  <si>
-    <t>picoCTF - https://play.picoctf.org/practice/challenge/186?page=1&amp;search=information</t>
-  </si>
-  <si>
     <t>Forecsics</t>
   </si>
   <si>
@@ -217,9 +202,6 @@
     <t>Skriptanalyse</t>
   </si>
   <si>
-    <t>picoCTF - https://play.picoctf.org/practice/challenge/12?category=3&amp;page=1</t>
-  </si>
-  <si>
     <t>Reverse Engeneering</t>
   </si>
   <si>
@@ -238,19 +220,10 @@
     <t xml:space="preserve">forensics </t>
   </si>
   <si>
-    <t>https://stackoverflow.com/questions/49767220/accessing-hidden-data-streams</t>
-  </si>
-  <si>
     <t xml:space="preserve">hidden stream </t>
   </si>
   <si>
     <t xml:space="preserve">je nach bedarf können wir hier einen brief erstellen oder so </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lösung </t>
-  </si>
-  <si>
-    <t>picoCTF 2019 vault-door-1 Writeup – DMFR SECURITY</t>
   </si>
   <si>
     <t>ctf-1</t>
@@ -323,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,21 +323,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -406,11 +364,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -434,11 +391,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -476,9 +430,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:I19" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:I19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:G19" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ChallengeName"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nr. im Game"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Stufe" dataDxfId="0"/>
@@ -486,8 +440,6 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dateipath"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Typ"/>
     <tableColumn id="8" xr3:uid="{BE2C3356-256D-405E-BE1B-E0445F42102A}" name="simuliert"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quelle"/>
-    <tableColumn id="9" xr3:uid="{E3D4471F-B0A3-476F-BF07-3E68248E5635}" name="Lösung "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,18 +733,17 @@
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="79.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -804,156 +755,132 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="8">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="8">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -962,104 +889,89 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="8">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>61</v>
       </c>
       <c r="C10" s="8">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C12" s="8">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I10" r:id="rId1" display="https://dmfrsecurity.com/2021/11/01/picoctf-2019-vault-door-1-writeup/" xr:uid="{6B6D9036-6650-419F-8539-D05D0655B5C8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1083,90 +995,90 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1197,26 +1109,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1241,21 +1153,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3">
         <v>44845</v>
@@ -1263,10 +1175,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3">
         <v>44845</v>
@@ -1274,28 +1186,28 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1315,95 +1227,95 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
         <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
